--- a/medicine/Enfance/Tarō_Gomi/Tarō_Gomi.xlsx
+++ b/medicine/Enfance/Tarō_Gomi/Tarō_Gomi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tar%C5%8D_Gomi</t>
+          <t>Tarō_Gomi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tarō Gomi (五味 太郎, Gomi Tarō?, né à Chōfu le 20 août 1945) est un des plus prolifiques écrivains et illustrateurs japonais de littérature d'enfance et de jeunesse. Il a publié plus de 400 livres au Japon et ses créations sont traduites dans de nombreuses langues.
 Il écrit aussi des chansons pour de nombreux spectacles pour enfants tels que DanDanDanDan (だんだんだんだん?) en 1987.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tar%C5%8D_Gomi</t>
+          <t>Tarō_Gomi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques albums traduits en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A chacun sa crotte, Télédition, 1989
 réédité sous le titre On fait tous caca
